--- a/Controlled Vocabulary And CrossWalk.xlsx
+++ b/Controlled Vocabulary And CrossWalk.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,105 +416,130 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>AREMPFieldCorrection</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>AREMPDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AREMPUnits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>AREMPCollectionMethodID</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>AREMPAnalysisMethodID</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>BLMFieldFromMetadata</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>BLMField</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>BLMFieldCorrection</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>BLMDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>BLMUnits</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>BLMCollectionMethodID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>BLMAnalysisMethodID</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>EPA2008Field</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>EPA2008FieldCorrection</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>EPA2004Field</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>EPA2004FieldCorrection</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>EPADescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>EPAUnits</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>EPACollectionMethodID</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>EPAAnalysisMethodID</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PIBOField</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>PIBOFieldCorrection</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>PIBODescriptionIfDifferentFromDescription</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>PIBOUnits</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>PIBOCollectionMethodID</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>PIBOAnalysisMethodID</t>
         </is>
@@ -562,50 +587,50 @@
           <t>average_bfwidth</t>
         </is>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6849</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>BankfullWidth</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>BNKFLL_WT</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t xml:space="preserve">6849- customized </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>XBKF_W</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>XBKF_W</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Bf</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
@@ -653,42 +678,42 @@
           <t>gradient</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Slope</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>SLPE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>XSLOPE</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>XSLOPE</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Grad</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -736,37 +761,37 @@
           <t>REACH_LENGTH</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>TotRchlen</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>TOT_RCH_LEN</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>REACHLEN</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>REACHLEN</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>RchLen</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
@@ -809,27 +834,27 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>BFWD_RAT</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>BFWD_RAT</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t xml:space="preserve">ratio </t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>WDTrans</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
@@ -877,32 +902,32 @@
           <t>average_bfdepth</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>BankfullHeight</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>BNKFLL_HT</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>XBKF_H</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>XBKF_H</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>m</t>
         </is>
@@ -945,32 +970,32 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>WettedWidth</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>WTTD_WT</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>XWIDTH</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>XWIDTH</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>m</t>
         </is>
@@ -1013,27 +1038,27 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>XWD_RAT</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>XWD_RAT</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t xml:space="preserve">ratio </t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>WDWetTrans</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>ratio</t>
         </is>
@@ -1076,42 +1101,42 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>ResPoolDepth</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>RES_PL_DEP</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>RP100</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>RP100</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t xml:space="preserve">cm </t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>PoolDp</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>m</t>
         </is>
@@ -1154,70 +1179,70 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>6844</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3852</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>PctPools</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>PCT_PL</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>6859</t>
         </is>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>36</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>PCT_POOL</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>PCT_POOL</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t xml:space="preserve">% </t>
         </is>
       </c>
-      <c r="Z10">
+      <c r="AD10">
         <v>92</v>
       </c>
-      <c r="AA10">
+      <c r="AE10">
         <v>88</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>PoolPct</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
       </c>
-      <c r="AE10">
+      <c r="AJ10">
         <v>922</v>
       </c>
-      <c r="AF10">
+      <c r="AK10">
         <v>55</v>
       </c>
     </row>
@@ -1258,27 +1283,27 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>PctDry</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>PCT_DRY</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>PCT_DRS</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>PCT_DRS</t>
         </is>
@@ -1321,22 +1346,22 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>StreamOrder</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>STRM_ORDR</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>STRAHLERORDER</t>
         </is>
@@ -1384,40 +1409,40 @@
           <t>substrate</t>
         </is>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>6797</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>D50</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>D50</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>6800</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>D50</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="AE13">
+      <c r="AJ13">
         <v>6799</v>
       </c>
     </row>
@@ -1458,40 +1483,40 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>6797</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>PctFines</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>PCT_FN</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>6862</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>PCT_SAFN</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>PCT_SAFN</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -1534,40 +1559,40 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>6797</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>PctFines6</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>PCT_FN6</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>3862</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>PCT_FN</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>PCT_FN</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -1610,43 +1635,43 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N16">
-        <v>6846</v>
-      </c>
       <c r="O16">
         <v>6846</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16">
+        <v>6846</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>LWD_Freq</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>LWD_FREQ</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t># pieces/100 m</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>C1WM100</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>#/100m</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>LWFrq</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>pieces / km</t>
         </is>
@@ -1689,48 +1714,48 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N17">
-        <v>6846</v>
-      </c>
       <c r="O17">
         <v>6846</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17">
+        <v>6846</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>LWD_Vol</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>LWD_VL</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>m^3/100 m</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>V1WM100</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>V1W_MSQ</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t xml:space="preserve">m3/100m </t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>LWVol</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>m3 / km</t>
         </is>
@@ -1773,30 +1798,30 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6847</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>OE_Macroinvertebrate</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>OE_MACROINVRTBRTE</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>6861</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>OE_SCORE</t>
         </is>
@@ -1839,30 +1864,30 @@
           <t xml:space="preserve">Double </t>
         </is>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6847</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>MMI_Macroinvertebrate</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>MMI_MACROINVRTBRTE</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>6861</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>BENT_MMI_COND</t>
         </is>
@@ -1875,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2098,12 +2123,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AREMPDescriptionIfDifferentFromDefinition</t>
+          <t>AREMPFieldCorrection</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2115,12 +2140,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AREMPUnits</t>
+          <t>AREMPDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Unit of metric in the AREMP data set</t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2132,12 +2157,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AREMPCollectionMethodID</t>
+          <t>AREMPUnits</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t>Unit of metric in the AREMP data set</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2149,12 +2174,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AREMPAnalysisMethodID</t>
+          <t>AREMPCollectionMethodID</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2166,12 +2191,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLMFieldFromMetadata</t>
+          <t>AREMPAnalysisMethodID</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">The BLM field name from the metadata </t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2183,12 +2208,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLMField</t>
+          <t>BLMFieldFromMetadata</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the BLM data set. The metadata and the data set field names don't always agree. </t>
+          <t xml:space="preserve">The BLM field name from the metadata </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2200,12 +2225,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLMDescriptionIfDifferentFromDefinition</t>
+          <t>BLMField</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">The column header in the BLM data set. The metadata and the data set field names don't always agree. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2217,12 +2242,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLMUnits</t>
+          <t>BLMFieldCorrection</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the BLM metadata </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2234,12 +2259,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLMCollectionMethodID</t>
+          <t>BLMDescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2251,12 +2276,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLMAnalysisMethodID</t>
+          <t>BLMUnits</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Unit of the metric from the BLM metadata </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2268,12 +2293,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EPA2008Field</t>
+          <t>BLMCollectionMethodID</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the 2008 EPA data set </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2285,12 +2310,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EPA2004Field</t>
+          <t>BLMAnalysisMethodID</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The column header in the 2004 EPA data set</t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2302,12 +2327,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EPADescriptionIfDifferentFromDefinition</t>
+          <t>EPA2008Field</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">The column header in the 2008 EPA data set </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2319,12 +2344,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EPAUnits</t>
+          <t>EPA2008FieldCorrection</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the EPA metadata </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2336,12 +2361,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EPACollectionMethodID</t>
+          <t>EPA2004Field</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t>The column header in the 2004 EPA data set</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2353,12 +2378,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EPAAnalysisMethodID</t>
+          <t>EPA2004FieldCorrection</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2370,12 +2395,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PIBOField</t>
+          <t>EPADescriptionIfDifferentFromDefinition</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">The column header in the PIBO data set </t>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2387,12 +2412,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PIBODescriptionIfDifferentFromDescription</t>
+          <t>EPAUnits</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+          <t xml:space="preserve">Unit of the metric from the EPA metadata </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2404,12 +2429,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PIBOUnits</t>
+          <t>EPACollectionMethodID</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unit of the metric from the PIBO metadata </t>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2421,12 +2446,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PIBOCollectionMethodID</t>
+          <t>EPAAnalysisMethodID</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+          <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2438,15 +2463,100 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>PIBOField</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The column header in the PIBO data set </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PIBOFieldCorrection</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data manager correction or note on the field cross-walk </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PIBODescriptionIfDifferentFromDescription</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description of the element if it is different from the definition defined in the "Definition" </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PIBOUnits</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unit of the metric from the PIBO metadata </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PIBOCollectionMethodID</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The ID number of the data collection method documented in MonitoringResources.org </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>PIBOAnalysisMethodID</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">The ID number of the data analysis method documented in MonitoringResources.org </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>x</t>
         </is>
